--- a/datasets/distiller_cohort.xlsx
+++ b/datasets/distiller_cohort.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO_New_Form_V2/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{6C54926B-8322-41BE-9DD5-FF5F0FB264EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6BD3BCC5-14A7-4A42-BB92-6D03EADDADE4}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{6C54926B-8322-41BE-9DD5-FF5F0FB264EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1E2928B3-FE3B-4C50-98CA-670449788ADE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="164">
   <si>
     <t>Refid</t>
   </si>
@@ -278,6 +281,240 @@
   </si>
   <si>
     <t>Allergies</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>sarah_totton</t>
+  </si>
+  <si>
+    <t>Stressed or annoyed</t>
+  </si>
+  <si>
+    <t>Psychiatric disorder</t>
+  </si>
+  <si>
+    <t>Hydrogen sulfide</t>
+  </si>
+  <si>
+    <t>Nervous or anxious</t>
+  </si>
+  <si>
+    <t>Gloomy, blue or unhappy</t>
+  </si>
+  <si>
+    <t>Angry, grouchy or bad-tempered</t>
+  </si>
+  <si>
+    <t>Confused or unable to concentrate</t>
+  </si>
+  <si>
+    <t>PM10</t>
+  </si>
+  <si>
+    <t>Semi-volatile PM10</t>
+  </si>
+  <si>
+    <t>Twice daily odor rating</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>1.63</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>This article is part of the CHEIHO Study: From Ref ID #12: Participants "were recruited through community-based organizations. The lead community organization for this study was the Concerned Citizens of Tillery." from Ref ID #16: "a community-based organization that promotes the health, environmental and political interests of predominantly African-American communities in eastern North Carolina" Ref ID #14: "have continued as partners in all research that has been conducted" "members of the community-based organizations participated as advisors in the study design and design of study instruments. They were integrally involved in the recruitment and training of study participants."</t>
+  </si>
+  <si>
+    <t>H2S was objectively assessed but it was at the level of the neighborhood, not each participant's residence. From Ref ID #12: "The air-monitoring equipment for this study was large and difficult to conceal. In some communities, participants reported reductions in hog odor and spraying of hog waste during the study compared with time periods before and after the equipment was in their neighborhoods. Changes in waste management practices could have lowered exposure levels during the study, and consequently our ability to detect effects. In addition, exposure variability within communities could not be quantified by the stationary, centrally located monitors." 	Hourly average H2S, PM10 and semi-volatile PM10 values were calculated for the hour immediately preceding" assessment of the mood. "where participant homes were more geographically dispersed, we deployed additional H2S monitors at homes farthest from the platform"</t>
+  </si>
+  <si>
+    <t>It's quite possible that the participant was stressed or annoyed for any number of reasons prior to assessing their mood.</t>
+  </si>
+  <si>
+    <t>Subjects served as their own controls. Ref ID #16: "the repeated-effects design and fixed-effects analysis precludes confounding from time-independent factors that differ between people" 	Ref ID #14: "we adjusted all models for time of day (morning vs evening) because time is an important predictor of odor." "Perceptions of stress and adverse mood vary between people, and we were able to statistically model the between-person variation in such perceptions."</t>
+  </si>
+  <si>
+    <t>Since subjects acted as their own controls, all time-invariant confounders would have been controlled for without having to be measured. Time of day (the time-variant confounder) would have been easy to assess.</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes. Stressed or annoyed was assessed using "an ad-hoc single-item measure" from a validated scale.</t>
+  </si>
+  <si>
+    <t>Odor and Stress/Mood: Out of 2895 records, "complete data on reported odor, stress, and mood were available for 2666 records" Details of the missing data were not reported.  H2S: "78 records were missing data on H2S…because of monitoring equipment malfunction" PM10: "741 records were missing data on PM10…because of monitoring equipment malfunction" Description of missing outcome data was not reported.</t>
+  </si>
+  <si>
+    <t>Unclear risk of bias for one or more key domains.</t>
+  </si>
+  <si>
+    <t>It's quite possible that the participant was nerous or anxious for any number of reasons prior to experiencing the exposure.</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes. Feeling nervous or anxious was assessed using POMS.</t>
+  </si>
+  <si>
+    <t>It's quite possible that the participant was gloomy, blue or unhappy for any number of reasons prior to experiencing the exposure.</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes. Feeling gloomy, blue or unhappy was assessed using POMS.</t>
+  </si>
+  <si>
+    <t>It's quite possible that the participant was angry, grouchy or bad-tempered for any number of reasons prior to experiencing the exposure.</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes. Feeling angry, grouchy or bad-tempered was assessed using POMS.</t>
+  </si>
+  <si>
+    <t>It's quite possible that the participant was confused or unable to concentrate  for any number of reasons prior to experiencing the exposure.</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes. Feeling confused or unable to concentrate was assessed using POMS.</t>
+  </si>
+  <si>
+    <t>PM10 was objectively assessed but it was at the level of the neighborhood, not each participant's residence. From Ref ID #12: "The air-monitoring equipment for this study was large and difficult to conceal. In some communities, participants reported reductions in hog odor and spraying of hog waste during the study compared with time periods before and after the equipment was in their neighborhoods. Changes in waste management practices could have lowered exposure levels during the study, and consequently our ability to detect effects. In addition, exposure variability within communities could not be quantified by the stationary, centrally located monitors." 	Hourly average H2S, PM10 and semi-volatile PM10 values were calculated for the hour immediately preceding" assessment of the mood.</t>
+  </si>
+  <si>
+    <t>It's quite possible that the participant was experiencing negative mood for any number of reasons prior to exposure.</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes. Feeling gloomy, blue or unhappy  was assessed using POMS.</t>
+  </si>
+  <si>
+    <t>Semi-volatile PM10 was objectively assessed but it was at the level of the neighborhood, not each participant's residence. From Ref ID #12: "The air-monitoring equipment for this study was large and difficult to conceal. In some communities, participants reported reductions in hog odor and spraying of hog waste during the study compared with time periods before and after the equipment was in their neighborhoods. Changes in waste management practices could have lowered exposure levels during the study, and consequently our ability to detect effects. In addition, exposure variability within communities could not be quantified by the stationary, centrally located monitors." 	Hourly average H2S, PM10 and semi-volatile PM10 values were calculated for the hour immediately preceding" assessment of the mood.</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes. Nervous or anxious was assessed using the POMS.</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes. Feeling gloomy, blue or unhappy was measured using POMS.</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes. Feeling confused or unable to concentrate was measured using POMS.</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes. Feeling angry, grouchy or bad-tempered was measured using POMS.</t>
+  </si>
+  <si>
+    <t>While odor was assessed at the participant's residence, it was subjectively assessed. Odor was assessed "on a 9-point scale ranging from 0 (no odor) to 8 (very strong)." which was subjective. "A further design limitation was the contemporaneous assessment of both exposure and outcome for the analyses of odor as a predictor of stress and negative mood. Because both exposure and outcome were assessed by self-report, it is difficult to determine how the assessment of one affected the assessment of the other. Participants spent 10 minutes outdoors before returning indoors to complete the required data collection activities; they rated the intensity of any malodor present and then rated stress and mood. Rating the odor while stressed or annoyed for reasons unrelated to odor may have induced a higher rating than the participant would have rated in the absence of feeling stressed or annoyed."</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes if the hog odor outside the house was strong. Stressed or annoyed was assessed using "an ad-hoc single-item measure" from a validated scale.</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes, particularly if the odor was strong outside the home. Feeling gloomy, blue or unhappy was assessed using the POMS.</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes if the odor outside the home was strong.. Feeling nervous or anxious was assessing using POMS.</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes, particularly if the odor was strong outside the home. Feeling confused or unable to concentrate was assessed using the POMS.</t>
+  </si>
+  <si>
+    <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes, particularly if the odor was strong outside the home. Feeling angry, grouchy or bad-tempered was assessed using the POMS.</t>
   </si>
 </sst>
 </file>
@@ -291,12 +528,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -311,9 +554,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -990,7 +1234,1588 @@
         <v>66</v>
       </c>
     </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="K10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="K11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="K13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="K14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AN1" xr:uid="{03614E8A-C33E-4BED-BDBE-7FB21B008153}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/distiller_cohort.xlsx
+++ b/datasets/distiller_cohort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{6C54926B-8322-41BE-9DD5-FF5F0FB264EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1E2928B3-FE3B-4C50-98CA-670449788ADE}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{6C54926B-8322-41BE-9DD5-FF5F0FB264EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ECA323E6-2403-4433-8D3A-F221BC4A304D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$23</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="166">
   <si>
     <t>Refid</t>
   </si>
@@ -515,6 +515,12 @@
   </si>
   <si>
     <t>A validated scale was used, but it was subjective and subjects assessed their own outcomes. Additionally, the way recruitment worked, subjects who enrolled in the study would be those who would be more likely to report adverse mental health outcomes, particularly if the odor was strong outside the home. Feeling angry, grouchy or bad-tempered was assessed using the POMS.</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -872,15 +878,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="40" width="8.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1001,8 +1010,11 @@
       <c r="AN1" t="s">
         <v>36</v>
       </c>
+      <c r="AO1" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1123,8 +1135,11 @@
       <c r="AN2" t="s">
         <v>66</v>
       </c>
+      <c r="AO2" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1233,8 +1248,11 @@
       <c r="AN3" t="s">
         <v>66</v>
       </c>
+      <c r="AO3" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -1311,8 +1329,11 @@
       <c r="AN4" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO4" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -1389,8 +1410,11 @@
       <c r="AN5" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO5" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
@@ -1467,8 +1491,11 @@
       <c r="AN6" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO6" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
@@ -1545,8 +1572,11 @@
       <c r="AN7" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO7" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
@@ -1623,8 +1653,11 @@
       <c r="AN8" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO8" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
@@ -1701,8 +1734,11 @@
       <c r="AN9" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO9" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>86</v>
       </c>
@@ -1779,8 +1815,11 @@
       <c r="AN10" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO10" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
@@ -1857,8 +1896,11 @@
       <c r="AN11" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO11" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -1935,8 +1977,11 @@
       <c r="AN12" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO12" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
@@ -2013,8 +2058,11 @@
       <c r="AN13" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO13" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
@@ -2091,8 +2139,11 @@
       <c r="AN14" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO14" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
@@ -2169,8 +2220,11 @@
       <c r="AN15" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO15" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
@@ -2247,8 +2301,11 @@
       <c r="AN16" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO16" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
@@ -2325,8 +2382,11 @@
       <c r="AN17" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO17" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>86</v>
       </c>
@@ -2403,8 +2463,11 @@
       <c r="AN18" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO18" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -2481,8 +2544,11 @@
       <c r="AN19" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO19" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
@@ -2559,8 +2625,11 @@
       <c r="AN20" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO20" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -2637,8 +2706,11 @@
       <c r="AN21" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO21" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -2715,8 +2787,11 @@
       <c r="AN22" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO22" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
@@ -2793,29 +2868,32 @@
       <c r="AN23" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="AO23" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN1" xr:uid="{03614E8A-C33E-4BED-BDBE-7FB21B008153}"/>
+  <autoFilter ref="A1:AN23" xr:uid="{03614E8A-C33E-4BED-BDBE-7FB21B008153}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/distiller_cohort.xlsx
+++ b/datasets/distiller_cohort.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{7BE81427-3541-4893-85D5-23B7087580DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4F38C2FB-A6A7-4FFE-A1B5-47052E2E266C}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{7BE81427-3541-4893-85D5-23B7087580DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BB19BFF-9640-40EA-A9EE-BFAB80C38F2E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB031289-FD38-46DA-A5BA-BA224481974B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="211">
   <si>
     <t>32507707</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Asthma</t>
   </si>
   <si>
-    <t>Lower respiratory</t>
-  </si>
-  <si>
     <t>all CAFOs all ages</t>
   </si>
   <si>
@@ -670,6 +667,9 @@
   </si>
   <si>
     <t>OR</t>
+  </si>
+  <si>
+    <t>Lower Respiratory</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,6 +695,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,9 +717,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,159 +1039,159 @@
   <dimension ref="A1:AV40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
         <v>162</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>168</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>170</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>171</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>172</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>173</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>174</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>176</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>177</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>178</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>179</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>180</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>181</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>182</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>183</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>184</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>185</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>186</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>187</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>188</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>189</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>191</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>192</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>193</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>194</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>195</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>196</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>197</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>198</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>199</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" t="s">
         <v>201</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>202</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>203</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>204</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>205</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>206</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1200,8 +1207,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1211,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1295,8 +1302,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -1306,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -1391,7 +1398,7 @@
       </c>
     </row>
     <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1401,13 +1408,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
@@ -1486,7 +1493,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1496,13 +1503,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -1581,7 +1588,7 @@
       </c>
     </row>
     <row r="7" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1591,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
         <v>50</v>
@@ -1676,7 +1683,7 @@
       </c>
     </row>
     <row r="8" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -1686,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
         <v>50</v>
@@ -1771,7 +1778,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -1781,13 +1788,13 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
         <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
@@ -1796,7 +1803,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
         <v>28</v>
@@ -1808,43 +1815,43 @@
         <v>58</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N9" t="s">
         <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s">
         <v>47</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R9" t="s">
         <v>56</v>
       </c>
       <c r="S9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" t="s">
         <v>68</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>69</v>
-      </c>
-      <c r="U9" t="s">
-        <v>70</v>
       </c>
       <c r="V9" t="s">
         <v>41</v>
       </c>
       <c r="W9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X9" t="s">
         <v>37</v>
       </c>
       <c r="Y9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z9" t="s">
         <v>36</v>
@@ -1856,13 +1863,13 @@
         <v>46</v>
       </c>
       <c r="AC9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD9" t="s">
         <v>73</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>74</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>75</v>
       </c>
       <c r="AF9" t="s">
         <v>40</v>
@@ -1883,7 +1890,7 @@
         <v>21</v>
       </c>
       <c r="AL9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="s">
         <v>19</v>
@@ -1907,14 +1914,14 @@
         <v>21</v>
       </c>
       <c r="AT9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AU9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -1924,13 +1931,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
         <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
@@ -1939,76 +1946,76 @@
         <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s">
         <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
         <v>78</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>79</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" t="s">
         <v>80</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>67</v>
-      </c>
-      <c r="R10" t="s">
-        <v>81</v>
       </c>
       <c r="S10" t="s">
         <v>56</v>
       </c>
       <c r="T10" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" t="s">
+        <v>69</v>
+      </c>
+      <c r="V10" t="s">
         <v>82</v>
       </c>
-      <c r="U10" t="s">
-        <v>70</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>83</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>84</v>
       </c>
-      <c r="X10" t="s">
-        <v>85</v>
-      </c>
       <c r="Y10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z10" t="s">
         <v>46</v>
       </c>
       <c r="AA10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF10" t="s">
         <v>68</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>69</v>
       </c>
       <c r="AG10" t="s">
         <v>17</v>
@@ -2026,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="AL10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="s">
         <v>19</v>
@@ -2050,14 +2057,14 @@
         <v>21</v>
       </c>
       <c r="AT10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AU10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
@@ -2067,13 +2074,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
         <v>89</v>
-      </c>
-      <c r="F11" t="s">
-        <v>90</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
@@ -2088,22 +2095,22 @@
         <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" t="s">
         <v>13</v>
       </c>
       <c r="N11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" t="s">
         <v>92</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>93</v>
-      </c>
-      <c r="P11" t="s">
-        <v>94</v>
       </c>
       <c r="AG11" t="s">
         <v>17</v>
@@ -2121,7 +2128,7 @@
         <v>21</v>
       </c>
       <c r="AL11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM11" t="s">
         <v>19</v>
@@ -2151,8 +2158,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
@@ -2162,13 +2169,13 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
         <v>89</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
@@ -2183,22 +2190,22 @@
         <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
       </c>
       <c r="N12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s">
         <v>92</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>93</v>
-      </c>
-      <c r="P12" t="s">
-        <v>94</v>
       </c>
       <c r="AG12" t="s">
         <v>17</v>
@@ -2216,7 +2223,7 @@
         <v>21</v>
       </c>
       <c r="AL12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM12" t="s">
         <v>19</v>
@@ -2247,7 +2254,7 @@
       </c>
     </row>
     <row r="13" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
@@ -2257,13 +2264,13 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
         <v>210</v>
-      </c>
-      <c r="E13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" t="s">
-        <v>63</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
@@ -2272,22 +2279,22 @@
         <v>8</v>
       </c>
       <c r="I13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" t="s">
         <v>97</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>98</v>
-      </c>
-      <c r="K13" t="s">
-        <v>99</v>
       </c>
       <c r="L13" t="s">
         <v>46</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O13" t="s">
         <v>52</v>
@@ -2296,13 +2303,13 @@
         <v>47</v>
       </c>
       <c r="Q13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R13" t="s">
         <v>40</v>
       </c>
       <c r="S13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T13" t="s">
         <v>56</v>
@@ -2323,7 +2330,7 @@
         <v>21</v>
       </c>
       <c r="AL13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AM13" t="s">
         <v>19</v>
@@ -2354,7 +2361,7 @@
       </c>
     </row>
     <row r="14" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
@@ -2364,13 +2371,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="s">
         <v>210</v>
-      </c>
-      <c r="E14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" t="s">
-        <v>63</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -2379,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
         <v>28</v>
@@ -2391,7 +2398,7 @@
         <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N14" t="s">
         <v>28</v>
@@ -2403,7 +2410,7 @@
         <v>58</v>
       </c>
       <c r="Q14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R14" t="s">
         <v>58</v>
@@ -2430,7 +2437,7 @@
         <v>21</v>
       </c>
       <c r="AL14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AM14" t="s">
         <v>19</v>
@@ -2461,7 +2468,7 @@
       </c>
     </row>
     <row r="15" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
@@ -2471,10 +2478,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
         <v>51</v>
@@ -2492,7 +2499,7 @@
         <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L15" t="s">
         <v>46</v>
@@ -2501,10 +2508,10 @@
         <v>13</v>
       </c>
       <c r="N15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15" t="s">
         <v>105</v>
-      </c>
-      <c r="O15" t="s">
-        <v>106</v>
       </c>
       <c r="P15" t="s">
         <v>28</v>
@@ -2525,7 +2532,7 @@
         <v>21</v>
       </c>
       <c r="AL15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AM15" t="s">
         <v>19</v>
@@ -2556,7 +2563,7 @@
       </c>
     </row>
     <row r="16" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
@@ -2566,10 +2573,10 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
         <v>51</v>
@@ -2596,10 +2603,10 @@
         <v>13</v>
       </c>
       <c r="N16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P16" t="s">
         <v>11</v>
@@ -2620,7 +2627,7 @@
         <v>21</v>
       </c>
       <c r="AL16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AM16" t="s">
         <v>19</v>
@@ -2650,8 +2657,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
@@ -2661,13 +2668,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
         <v>7</v>
@@ -2685,16 +2692,16 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N17" t="s">
         <v>61</v>
       </c>
       <c r="O17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P17" t="s">
         <v>58</v>
@@ -2706,10 +2713,10 @@
         <v>30</v>
       </c>
       <c r="S17" t="s">
+        <v>110</v>
+      </c>
+      <c r="T17" t="s">
         <v>111</v>
-      </c>
-      <c r="T17" t="s">
-        <v>112</v>
       </c>
       <c r="AG17" t="s">
         <v>17</v>
@@ -2751,15 +2758,15 @@
         <v>21</v>
       </c>
       <c r="AT17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>4</v>
+    <row r="18" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>32507932</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -2768,13 +2775,13 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
@@ -2795,13 +2802,13 @@
         <v>47</v>
       </c>
       <c r="M18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P18" t="s">
         <v>47</v>
@@ -2810,13 +2817,13 @@
         <v>13</v>
       </c>
       <c r="R18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG18" t="s">
         <v>17</v>
@@ -2858,14 +2865,14 @@
         <v>21</v>
       </c>
       <c r="AT18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
@@ -2875,13 +2882,13 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
         <v>115</v>
-      </c>
-      <c r="F19" t="s">
-        <v>116</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
@@ -2899,7 +2906,7 @@
         <v>47</v>
       </c>
       <c r="L19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG19" t="s">
         <v>17</v>
@@ -2935,7 +2942,7 @@
         <v>17</v>
       </c>
       <c r="AR19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AS19" t="s">
         <v>21</v>
@@ -2948,8 +2955,8 @@
       </c>
     </row>
     <row r="20" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>4</v>
+      <c r="A20" s="2">
+        <v>32507932</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -2958,13 +2965,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" t="s">
-        <v>116</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
@@ -2982,7 +2989,7 @@
         <v>47</v>
       </c>
       <c r="L20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG20" t="s">
         <v>17</v>
@@ -3018,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="AR20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AS20" t="s">
         <v>21</v>
@@ -3031,7 +3038,7 @@
       </c>
     </row>
     <row r="21" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
@@ -3041,13 +3048,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
         <v>210</v>
-      </c>
-      <c r="E21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
@@ -3071,13 +3078,13 @@
         <v>13</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="s">
         <v>17</v>
@@ -3089,7 +3096,7 @@
         <v>19</v>
       </c>
       <c r="AJ21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK21" t="s">
         <v>21</v>
@@ -3126,7 +3133,7 @@
       </c>
     </row>
     <row r="22" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
@@ -3136,13 +3143,13 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
         <v>210</v>
-      </c>
-      <c r="E22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -3166,10 +3173,10 @@
         <v>13</v>
       </c>
       <c r="N22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P22" t="s">
         <v>28</v>
@@ -3221,8 +3228,8 @@
       </c>
     </row>
     <row r="23" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>123</v>
+      <c r="A23" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -3237,12 +3244,12 @@
         <v>3</v>
       </c>
       <c r="AV23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -3257,12 +3264,12 @@
         <v>3</v>
       </c>
       <c r="AV24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -3271,52 +3278,52 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" t="s">
         <v>210</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>127</v>
       </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>128</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>129</v>
-      </c>
-      <c r="I25" t="s">
-        <v>130</v>
       </c>
       <c r="J25" t="s">
         <v>28</v>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N25" t="s">
         <v>36</v>
       </c>
       <c r="O25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P25" t="s">
         <v>48</v>
       </c>
       <c r="Q25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R25" t="s">
         <v>57</v>
       </c>
       <c r="S25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T25" t="s">
         <v>28</v>
@@ -3325,54 +3332,54 @@
         <v>17</v>
       </c>
       <c r="AH25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>133</v>
       </c>
-      <c r="AI25" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ25" t="s">
+      <c r="AK25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL25" t="s">
         <v>134</v>
       </c>
-      <c r="AK25" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN25" t="s">
         <v>135</v>
       </c>
-      <c r="AM25" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN25" t="s">
+      <c r="AO25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP25" t="s">
         <v>136</v>
       </c>
-      <c r="AO25" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ25" t="s">
         <v>17</v>
       </c>
       <c r="AR25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS25" t="s">
         <v>19</v>
       </c>
       <c r="AT25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV25" t="s">
         <v>138</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -3381,34 +3388,34 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" t="s">
         <v>210</v>
       </c>
-      <c r="E26" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
       <c r="G26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" t="s">
         <v>128</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>129</v>
-      </c>
-      <c r="I26" t="s">
-        <v>130</v>
       </c>
       <c r="J26" t="s">
         <v>36</v>
       </c>
       <c r="K26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
@@ -3420,13 +3427,13 @@
         <v>48</v>
       </c>
       <c r="Q26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R26" t="s">
         <v>47</v>
       </c>
       <c r="S26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T26" t="s">
         <v>30</v>
@@ -3435,54 +3442,54 @@
         <v>17</v>
       </c>
       <c r="AH26" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>133</v>
       </c>
-      <c r="AI26" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL26" t="s">
         <v>134</v>
       </c>
-      <c r="AK26" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN26" t="s">
         <v>135</v>
       </c>
-      <c r="AM26" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN26" t="s">
+      <c r="AO26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP26" t="s">
         <v>136</v>
       </c>
-      <c r="AO26" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ26" t="s">
         <v>17</v>
       </c>
       <c r="AR26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS26" t="s">
         <v>19</v>
       </c>
       <c r="AT26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV26" t="s">
         <v>138</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV26" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -3491,22 +3498,22 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
         <v>210</v>
       </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" t="s">
-        <v>63</v>
-      </c>
       <c r="G27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" t="s">
         <v>129</v>
-      </c>
-      <c r="I27" t="s">
-        <v>130</v>
       </c>
       <c r="J27" t="s">
         <v>58</v>
@@ -3515,84 +3522,84 @@
         <v>52</v>
       </c>
       <c r="L27" t="s">
+        <v>141</v>
+      </c>
+      <c r="M27" t="s">
+        <v>130</v>
+      </c>
+      <c r="N27" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" t="s">
         <v>142</v>
-      </c>
-      <c r="M27" t="s">
-        <v>131</v>
-      </c>
-      <c r="N27" t="s">
-        <v>91</v>
-      </c>
-      <c r="O27" t="s">
-        <v>143</v>
       </c>
       <c r="P27" t="s">
         <v>30</v>
       </c>
       <c r="Q27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R27" t="s">
         <v>30</v>
       </c>
       <c r="S27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG27" t="s">
         <v>17</v>
       </c>
       <c r="AH27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>133</v>
       </c>
-      <c r="AI27" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ27" t="s">
+      <c r="AK27" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL27" t="s">
         <v>134</v>
       </c>
-      <c r="AK27" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN27" t="s">
         <v>135</v>
       </c>
-      <c r="AM27" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN27" t="s">
+      <c r="AO27" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP27" t="s">
         <v>136</v>
       </c>
-      <c r="AO27" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ27" t="s">
         <v>17</v>
       </c>
       <c r="AR27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS27" t="s">
         <v>19</v>
       </c>
       <c r="AT27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV27" t="s">
         <v>138</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV27" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -3601,108 +3608,108 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" t="s">
         <v>210</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>140</v>
       </c>
-      <c r="F28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>141</v>
-      </c>
       <c r="H28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" t="s">
         <v>129</v>
       </c>
-      <c r="I28" t="s">
-        <v>130</v>
-      </c>
       <c r="J28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L28" t="s">
         <v>47</v>
       </c>
       <c r="M28" t="s">
+        <v>130</v>
+      </c>
+      <c r="N28" t="s">
+        <v>68</v>
+      </c>
+      <c r="O28" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" t="s">
         <v>131</v>
       </c>
-      <c r="N28" t="s">
-        <v>69</v>
-      </c>
-      <c r="O28" t="s">
-        <v>91</v>
-      </c>
-      <c r="P28" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
+        <v>90</v>
+      </c>
+      <c r="S28" t="s">
+        <v>143</v>
+      </c>
+      <c r="T28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH28" t="s">
         <v>132</v>
       </c>
-      <c r="R28" t="s">
-        <v>91</v>
-      </c>
-      <c r="S28" t="s">
-        <v>144</v>
-      </c>
-      <c r="T28" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ28" t="s">
         <v>133</v>
       </c>
-      <c r="AI28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ28" t="s">
+      <c r="AK28" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL28" t="s">
         <v>134</v>
       </c>
-      <c r="AK28" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL28" t="s">
+      <c r="AM28" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN28" t="s">
         <v>135</v>
       </c>
-      <c r="AM28" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN28" t="s">
+      <c r="AO28" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP28" t="s">
         <v>136</v>
       </c>
-      <c r="AO28" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ28" t="s">
         <v>17</v>
       </c>
       <c r="AR28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS28" t="s">
         <v>19</v>
       </c>
       <c r="AT28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV28" t="s">
         <v>138</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV28" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -3711,52 +3718,52 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" t="s">
         <v>210</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" t="s">
         <v>145</v>
       </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" t="s">
-        <v>129</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="M29" t="s">
         <v>130</v>
       </c>
-      <c r="J29" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="N29" t="s">
         <v>68</v>
       </c>
-      <c r="L29" t="s">
+      <c r="O29" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" t="s">
         <v>146</v>
       </c>
-      <c r="M29" t="s">
+      <c r="Q29" t="s">
         <v>131</v>
-      </c>
-      <c r="N29" t="s">
-        <v>69</v>
-      </c>
-      <c r="O29" t="s">
-        <v>99</v>
-      </c>
-      <c r="P29" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>132</v>
       </c>
       <c r="R29" t="s">
         <v>52</v>
       </c>
       <c r="S29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T29" t="s">
         <v>29</v>
@@ -3765,54 +3772,54 @@
         <v>17</v>
       </c>
       <c r="AH29" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>133</v>
       </c>
-      <c r="AI29" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ29" t="s">
+      <c r="AK29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL29" t="s">
         <v>134</v>
       </c>
-      <c r="AK29" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL29" t="s">
+      <c r="AM29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN29" t="s">
         <v>135</v>
       </c>
-      <c r="AM29" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN29" t="s">
+      <c r="AO29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP29" t="s">
         <v>136</v>
       </c>
-      <c r="AO29" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ29" t="s">
         <v>17</v>
       </c>
       <c r="AR29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS29" t="s">
         <v>19</v>
       </c>
       <c r="AT29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV29" t="s">
         <v>138</v>
-      </c>
-      <c r="AU29" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV29" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -3821,22 +3828,22 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" t="s">
         <v>210</v>
       </c>
-      <c r="E30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" t="s">
-        <v>63</v>
-      </c>
       <c r="G30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" t="s">
         <v>128</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>129</v>
-      </c>
-      <c r="I30" t="s">
-        <v>130</v>
       </c>
       <c r="J30" t="s">
         <v>48</v>
@@ -3845,28 +3852,28 @@
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" t="s">
         <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T30" t="s">
         <v>36</v>
@@ -3875,54 +3882,54 @@
         <v>17</v>
       </c>
       <c r="AH30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>133</v>
       </c>
-      <c r="AI30" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ30" t="s">
+      <c r="AK30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL30" t="s">
         <v>134</v>
       </c>
-      <c r="AK30" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL30" t="s">
+      <c r="AM30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN30" t="s">
         <v>135</v>
       </c>
-      <c r="AM30" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN30" t="s">
+      <c r="AO30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP30" t="s">
         <v>136</v>
       </c>
-      <c r="AO30" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ30" t="s">
         <v>17</v>
       </c>
       <c r="AR30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS30" t="s">
         <v>19</v>
       </c>
       <c r="AT30" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV30" t="s">
         <v>138</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV30" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -3931,52 +3938,52 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" t="s">
         <v>210</v>
       </c>
-      <c r="E31" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" t="s">
-        <v>63</v>
-      </c>
       <c r="G31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" t="s">
+        <v>128</v>
+      </c>
+      <c r="I31" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" t="s">
         <v>141</v>
       </c>
-      <c r="H31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="M31" t="s">
         <v>130</v>
       </c>
-      <c r="J31" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" t="s">
-        <v>142</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
+        <v>149</v>
+      </c>
+      <c r="O31" t="s">
+        <v>119</v>
+      </c>
+      <c r="P31" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q31" t="s">
         <v>131</v>
       </c>
-      <c r="N31" t="s">
+      <c r="R31" t="s">
+        <v>97</v>
+      </c>
+      <c r="S31" t="s">
         <v>150</v>
-      </c>
-      <c r="O31" t="s">
-        <v>120</v>
-      </c>
-      <c r="P31" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>132</v>
-      </c>
-      <c r="R31" t="s">
-        <v>98</v>
-      </c>
-      <c r="S31" t="s">
-        <v>151</v>
       </c>
       <c r="T31" t="s">
         <v>10</v>
@@ -3985,54 +3992,54 @@
         <v>17</v>
       </c>
       <c r="AH31" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>133</v>
       </c>
-      <c r="AI31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ31" t="s">
+      <c r="AK31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL31" t="s">
         <v>134</v>
       </c>
-      <c r="AK31" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL31" t="s">
+      <c r="AM31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN31" t="s">
         <v>135</v>
       </c>
-      <c r="AM31" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN31" t="s">
+      <c r="AO31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP31" t="s">
         <v>136</v>
       </c>
-      <c r="AO31" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ31" t="s">
         <v>17</v>
       </c>
       <c r="AR31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS31" t="s">
         <v>19</v>
       </c>
       <c r="AT31" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV31" t="s">
         <v>138</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV31" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -4041,52 +4048,52 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" t="s">
         <v>210</v>
       </c>
-      <c r="E32" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" t="s">
-        <v>63</v>
-      </c>
       <c r="G32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H32" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" t="s">
         <v>129</v>
       </c>
-      <c r="I32" t="s">
-        <v>130</v>
-      </c>
       <c r="J32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K32" t="s">
         <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N32" t="s">
         <v>29</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P32" t="s">
         <v>38</v>
       </c>
       <c r="Q32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R32" t="s">
         <v>56</v>
       </c>
       <c r="S32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T32" t="s">
         <v>10</v>
@@ -4095,54 +4102,54 @@
         <v>17</v>
       </c>
       <c r="AH32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>133</v>
       </c>
-      <c r="AI32" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ32" t="s">
+      <c r="AK32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL32" t="s">
         <v>134</v>
       </c>
-      <c r="AK32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL32" t="s">
+      <c r="AM32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN32" t="s">
         <v>135</v>
       </c>
-      <c r="AM32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN32" t="s">
+      <c r="AO32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP32" t="s">
         <v>136</v>
       </c>
-      <c r="AO32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ32" t="s">
         <v>17</v>
       </c>
       <c r="AR32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS32" t="s">
         <v>19</v>
       </c>
       <c r="AT32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV32" t="s">
         <v>138</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -4151,34 +4158,34 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" t="s">
         <v>210</v>
       </c>
-      <c r="E33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F33" t="s">
-        <v>63</v>
-      </c>
       <c r="G33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" t="s">
         <v>128</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>129</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" t="s">
+        <v>90</v>
+      </c>
+      <c r="L33" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" t="s">
         <v>130</v>
-      </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" t="s">
-        <v>91</v>
-      </c>
-      <c r="L33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M33" t="s">
-        <v>131</v>
       </c>
       <c r="N33" t="s">
         <v>36</v>
@@ -4187,13 +4194,13 @@
         <v>61</v>
       </c>
       <c r="P33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S33" t="s">
         <v>40</v>
@@ -4205,54 +4212,54 @@
         <v>17</v>
       </c>
       <c r="AH33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ33" t="s">
         <v>133</v>
       </c>
-      <c r="AI33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ33" t="s">
+      <c r="AK33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL33" t="s">
         <v>134</v>
       </c>
-      <c r="AK33" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL33" t="s">
+      <c r="AM33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN33" t="s">
         <v>135</v>
       </c>
-      <c r="AM33" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN33" t="s">
+      <c r="AO33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP33" t="s">
         <v>136</v>
       </c>
-      <c r="AO33" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ33" t="s">
         <v>17</v>
       </c>
       <c r="AR33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS33" t="s">
         <v>19</v>
       </c>
       <c r="AT33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV33" t="s">
         <v>138</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -4261,22 +4268,22 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" t="s">
         <v>210</v>
       </c>
-      <c r="E34" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" t="s">
-        <v>63</v>
-      </c>
       <c r="G34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" t="s">
         <v>128</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>129</v>
-      </c>
-      <c r="I34" t="s">
-        <v>130</v>
       </c>
       <c r="J34" t="s">
         <v>47</v>
@@ -4288,81 +4295,81 @@
         <v>48</v>
       </c>
       <c r="M34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N34" t="s">
         <v>28</v>
       </c>
       <c r="O34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P34" t="s">
         <v>48</v>
       </c>
       <c r="Q34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R34" t="s">
         <v>56</v>
       </c>
       <c r="S34" t="s">
+        <v>67</v>
+      </c>
+      <c r="T34" t="s">
         <v>68</v>
       </c>
-      <c r="T34" t="s">
-        <v>69</v>
-      </c>
       <c r="AG34" t="s">
         <v>17</v>
       </c>
       <c r="AH34" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ34" t="s">
         <v>133</v>
       </c>
-      <c r="AI34" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ34" t="s">
+      <c r="AK34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL34" t="s">
         <v>134</v>
       </c>
-      <c r="AK34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL34" t="s">
+      <c r="AM34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN34" t="s">
         <v>135</v>
       </c>
-      <c r="AM34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN34" t="s">
+      <c r="AO34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP34" t="s">
         <v>136</v>
       </c>
-      <c r="AO34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ34" t="s">
         <v>17</v>
       </c>
       <c r="AR34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS34" t="s">
         <v>19</v>
       </c>
       <c r="AT34" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV34" t="s">
         <v>138</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -4371,22 +4378,22 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" t="s">
         <v>210</v>
       </c>
-      <c r="E35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" t="s">
-        <v>63</v>
-      </c>
       <c r="G35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35" t="s">
         <v>129</v>
-      </c>
-      <c r="I35" t="s">
-        <v>130</v>
       </c>
       <c r="J35" t="s">
         <v>28</v>
@@ -4398,81 +4405,81 @@
         <v>10</v>
       </c>
       <c r="M35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N35" t="s">
         <v>46</v>
       </c>
       <c r="O35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q35" t="s">
+        <v>131</v>
+      </c>
+      <c r="R35" t="s">
+        <v>79</v>
+      </c>
+      <c r="S35" t="s">
+        <v>67</v>
+      </c>
+      <c r="T35" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH35" t="s">
         <v>132</v>
       </c>
-      <c r="R35" t="s">
-        <v>80</v>
-      </c>
-      <c r="S35" t="s">
-        <v>68</v>
-      </c>
-      <c r="T35" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH35" t="s">
+      <c r="AI35" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ35" t="s">
         <v>133</v>
       </c>
-      <c r="AI35" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ35" t="s">
+      <c r="AK35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL35" t="s">
         <v>134</v>
       </c>
-      <c r="AK35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL35" t="s">
+      <c r="AM35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN35" t="s">
         <v>135</v>
       </c>
-      <c r="AM35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN35" t="s">
+      <c r="AO35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP35" t="s">
         <v>136</v>
       </c>
-      <c r="AO35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ35" t="s">
         <v>17</v>
       </c>
       <c r="AR35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS35" t="s">
         <v>19</v>
       </c>
       <c r="AT35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV35" t="s">
         <v>138</v>
-      </c>
-      <c r="AU35" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV35" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -4481,46 +4488,46 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" t="s">
         <v>210</v>
       </c>
-      <c r="E36" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" t="s">
-        <v>63</v>
-      </c>
       <c r="G36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" t="s">
         <v>129</v>
-      </c>
-      <c r="I36" t="s">
-        <v>130</v>
       </c>
       <c r="J36" t="s">
         <v>56</v>
       </c>
       <c r="K36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L36" t="s">
         <v>49</v>
       </c>
       <c r="M36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N36" t="s">
         <v>46</v>
       </c>
       <c r="O36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R36" t="s">
         <v>46</v>
@@ -4529,60 +4536,60 @@
         <v>61</v>
       </c>
       <c r="T36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG36" t="s">
         <v>17</v>
       </c>
       <c r="AH36" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ36" t="s">
         <v>133</v>
       </c>
-      <c r="AI36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ36" t="s">
+      <c r="AK36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL36" t="s">
         <v>134</v>
       </c>
-      <c r="AK36" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL36" t="s">
+      <c r="AM36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN36" t="s">
         <v>135</v>
       </c>
-      <c r="AM36" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN36" t="s">
+      <c r="AO36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP36" t="s">
         <v>136</v>
       </c>
-      <c r="AO36" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ36" t="s">
         <v>17</v>
       </c>
       <c r="AR36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS36" t="s">
         <v>19</v>
       </c>
       <c r="AT36" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV36" t="s">
         <v>138</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -4591,22 +4598,22 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" t="s">
         <v>210</v>
       </c>
-      <c r="E37" t="s">
-        <v>154</v>
-      </c>
-      <c r="F37" t="s">
-        <v>63</v>
-      </c>
       <c r="G37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" t="s">
         <v>128</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>129</v>
-      </c>
-      <c r="I37" t="s">
-        <v>130</v>
       </c>
       <c r="J37" t="s">
         <v>46</v>
@@ -4618,19 +4625,19 @@
         <v>49</v>
       </c>
       <c r="M37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P37" t="s">
         <v>48</v>
       </c>
       <c r="Q37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R37" t="s">
         <v>46</v>
@@ -4645,54 +4652,54 @@
         <v>17</v>
       </c>
       <c r="AH37" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ37" t="s">
         <v>133</v>
       </c>
-      <c r="AI37" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ37" t="s">
+      <c r="AK37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL37" t="s">
         <v>134</v>
       </c>
-      <c r="AK37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL37" t="s">
+      <c r="AM37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN37" t="s">
         <v>135</v>
       </c>
-      <c r="AM37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN37" t="s">
+      <c r="AO37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP37" t="s">
         <v>136</v>
       </c>
-      <c r="AO37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ37" t="s">
         <v>17</v>
       </c>
       <c r="AR37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS37" t="s">
         <v>19</v>
       </c>
       <c r="AT37" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV37" t="s">
         <v>138</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV37" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -4701,46 +4708,46 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" t="s">
         <v>210</v>
       </c>
-      <c r="E38" t="s">
-        <v>155</v>
-      </c>
-      <c r="F38" t="s">
-        <v>63</v>
-      </c>
       <c r="G38" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" t="s">
         <v>128</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>129</v>
-      </c>
-      <c r="I38" t="s">
-        <v>130</v>
       </c>
       <c r="J38" t="s">
         <v>58</v>
       </c>
       <c r="K38" t="s">
+        <v>155</v>
+      </c>
+      <c r="L38" t="s">
         <v>156</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
+        <v>130</v>
+      </c>
+      <c r="N38" t="s">
+        <v>79</v>
+      </c>
+      <c r="O38" t="s">
+        <v>149</v>
+      </c>
+      <c r="P38" t="s">
         <v>157</v>
       </c>
-      <c r="M38" t="s">
+      <c r="Q38" t="s">
         <v>131</v>
-      </c>
-      <c r="N38" t="s">
-        <v>80</v>
-      </c>
-      <c r="O38" t="s">
-        <v>150</v>
-      </c>
-      <c r="P38" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>132</v>
       </c>
       <c r="R38" t="s">
         <v>11</v>
@@ -4749,60 +4756,60 @@
         <v>61</v>
       </c>
       <c r="T38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG38" t="s">
         <v>17</v>
       </c>
       <c r="AH38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ38" t="s">
         <v>133</v>
       </c>
-      <c r="AI38" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ38" t="s">
+      <c r="AK38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL38" t="s">
         <v>134</v>
       </c>
-      <c r="AK38" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL38" t="s">
+      <c r="AM38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN38" t="s">
         <v>135</v>
       </c>
-      <c r="AM38" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN38" t="s">
+      <c r="AO38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP38" t="s">
         <v>136</v>
       </c>
-      <c r="AO38" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ38" t="s">
         <v>17</v>
       </c>
       <c r="AR38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS38" t="s">
         <v>19</v>
       </c>
       <c r="AT38" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV38" t="s">
         <v>138</v>
-      </c>
-      <c r="AU38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -4811,108 +4818,108 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" t="s">
         <v>210</v>
       </c>
-      <c r="E39" t="s">
-        <v>154</v>
-      </c>
-      <c r="F39" t="s">
-        <v>63</v>
-      </c>
       <c r="G39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H39" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" t="s">
         <v>129</v>
       </c>
-      <c r="I39" t="s">
-        <v>130</v>
-      </c>
       <c r="J39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K39" t="s">
         <v>33</v>
       </c>
       <c r="L39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N39" t="s">
         <v>40</v>
       </c>
       <c r="O39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R39" t="s">
         <v>40</v>
       </c>
       <c r="S39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s">
         <v>17</v>
       </c>
       <c r="AH39" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ39" t="s">
         <v>133</v>
       </c>
-      <c r="AI39" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ39" t="s">
+      <c r="AK39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL39" t="s">
         <v>134</v>
       </c>
-      <c r="AK39" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL39" t="s">
+      <c r="AM39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN39" t="s">
         <v>135</v>
       </c>
-      <c r="AM39" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN39" t="s">
+      <c r="AO39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP39" t="s">
         <v>136</v>
       </c>
-      <c r="AO39" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ39" t="s">
         <v>17</v>
       </c>
       <c r="AR39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS39" t="s">
         <v>19</v>
       </c>
       <c r="AT39" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV39" t="s">
         <v>138</v>
-      </c>
-      <c r="AU39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -4921,22 +4928,22 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" t="s">
         <v>210</v>
       </c>
-      <c r="E40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40" t="s">
-        <v>63</v>
-      </c>
       <c r="G40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H40" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" t="s">
         <v>129</v>
-      </c>
-      <c r="I40" t="s">
-        <v>130</v>
       </c>
       <c r="J40" t="s">
         <v>10</v>
@@ -4945,10 +4952,10 @@
         <v>16</v>
       </c>
       <c r="L40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N40" t="s">
         <v>38</v>
@@ -4957,16 +4964,16 @@
         <v>16</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T40" t="s">
         <v>42</v>
@@ -4975,56 +4982,56 @@
         <v>17</v>
       </c>
       <c r="AH40" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ40" t="s">
         <v>133</v>
       </c>
-      <c r="AI40" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ40" t="s">
+      <c r="AK40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL40" t="s">
         <v>134</v>
       </c>
-      <c r="AK40" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL40" t="s">
+      <c r="AM40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN40" t="s">
         <v>135</v>
       </c>
-      <c r="AM40" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN40" t="s">
+      <c r="AO40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP40" t="s">
         <v>136</v>
       </c>
-      <c r="AO40" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP40" t="s">
-        <v>137</v>
-      </c>
       <c r="AQ40" t="s">
         <v>17</v>
       </c>
       <c r="AR40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS40" t="s">
         <v>19</v>
       </c>
       <c r="AT40" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV40" t="s">
         <v>138</v>
-      </c>
-      <c r="AU40" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV40" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AV40" xr:uid="{2094414D-5479-46A2-9E35-B0105C5763EE}">
+  <autoFilter ref="A1:AV40" xr:uid="{F79E06B5-0D94-4BD3-8C0E-07D06686265E}">
     <filterColumn colId="5">
       <filters>
-        <filter val="Upper Respiratory"/>
+        <filter val="Infectious conditions"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/datasets/distiller_cohort.xlsx
+++ b/datasets/distiller_cohort.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{7BE81427-3541-4893-85D5-23B7087580DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BB19BFF-9640-40EA-A9EE-BFAB80C38F2E}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{7BE81427-3541-4893-85D5-23B7087580DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF009499-3AFE-4BE8-A176-1BDA39FF07DD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB031289-FD38-46DA-A5BA-BA224481974B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AV$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AV$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="261">
   <si>
     <t>32507707</t>
   </si>
@@ -670,6 +670,156 @@
   </si>
   <si>
     <t>Lower Respiratory</t>
+  </si>
+  <si>
+    <t>32512033</t>
+  </si>
+  <si>
+    <t>PR - RR - HR</t>
+  </si>
+  <si>
+    <t>Mortality due to Respiratory System Diseases</t>
+  </si>
+  <si>
+    <t>Number of cattle near the home residence</t>
+  </si>
+  <si>
+    <t>sex, origin, marital status, standardized household income, neighbourhood’s socioeconomic position, urbanization degree at neighbourhood level, proportion of low educated residents in the neighbourhood, ambient particulate matter &lt; 2.5 μm in diameter (PM2.5) levels and ambient nitrogen dioxide (NO2) levels. Models were also adjusted for the presence of goats and rabbits</t>
+  </si>
+  <si>
+    <t>&lt; or = 59 cattle within 500 m of home</t>
+  </si>
+  <si>
+    <t>&gt; 59 cattle within 500 m of home</t>
+  </si>
+  <si>
+    <t>&lt; or = 177 cattle within 1000 m of home</t>
+  </si>
+  <si>
+    <t>&gt; 177 cattle within 1000 m of home</t>
+  </si>
+  <si>
+    <t>&lt; or = 462 cattle within 1500 m of home</t>
+  </si>
+  <si>
+    <t>&gt; 462 cattle within 1500 m of home</t>
+  </si>
+  <si>
+    <t>By including the entire rural and semi-urban Dutch population aged ≥ 30 years, not only did we preclude recall and selection bias for the exposure, outcome and considered confounders, but we also conducted, to the best of our knowledge, the largest study on the topic to date."</t>
+  </si>
+  <si>
+    <t>Outcome was measured from 2005 to 2012, but the exposure was measured from 1999 to 2003. However, I think this is not a problem as they were looking at the effects of living for four years in that particular area on subsequent mortality. Because they didn't look at exposure after 2003, it's possible there is a range of different exposures in people who moved subsequent to 2003, which might bias measurement of true exposure (in the case of goat farms, this may underestimate exposure: "the goat farm industry has seen an important increase between 2000 and 2009, with a doubling of the number of animals and an increasing number of farms. Our exposure (1999–2003) and follow-up (2005–2012) periods encompass, each, part of this rise, resulting in underestimation of “goat exposure”, especially during the follow-up period. This is particularly relevant in the context of the large Q fever outbreak of 2007–2010" 	"We determined the presence of livestock farms located in the vicinity of residences using the Geographic Information System for Agricultural Holdings (Geografisch Informatie systeem Agrarische Bedrijven, GIAB) database, which provides spatial information on agricultural land use, namely data on Dutch agricultural holdings, obtained through the annual agricultural census by CBS and the Netherlands Enterprise Agency (RVO)." "We averaged the number of (specific) animals over the exposure period (1999–2003)"</t>
+  </si>
+  <si>
+    <t>Outcome was mortality and only living people were enrolled in the study.</t>
+  </si>
+  <si>
+    <t>"Models were adjusted for: sex, origin, marital status, standardized household income, neighbourhood’s socioeconomic position, urbanization degree at neighbourhood level, proportion of low educated residents in the neighbourhood, ambient particulate matter &lt; 2.5 μm in diameter (PM2.5) levels and ambient nitrogen dioxide (NO2) levels. Models were also adjusted for the presence of goats and rabbits."</t>
+  </si>
+  <si>
+    <t>"We determined the presence of livestock farms located in the vicinity of residences using the Geographic Information System for Agricultural Holdings (Geografisch Informatie systeem Agrarische Bedrijven, GIAB) database, which provides spatial information on agricultural land use, namely data on Dutch agricultural holdings, obtained through the annual agricultural census by CBS and the Netherlands Enterprise Agency (RVO)." "We averaged the number of (specific) animals over the exposure period (1999–2003)". OCCUPATIONAL EXPOSURE was accounted for by conducting sensitivity analysis to exclude agricultural workers from the model.,</t>
+  </si>
+  <si>
+    <t>"Follow-up started on 01-01-2005 and terminated at the end of the follow-up period (31-12-2012), at the time of death or when individuals were lost to follow-up, whichever came first. Data on mortality due to respiratory system diseases (RSD), chronic lower respiratory diseases (CLR) and pneumonia (PNE) were retrieved from the mortality database from CBS, where primary causes of death are classified according to the International Classification of Diseases, 10th revision (ICD-10; Fig. 2) (World Health Organization, 2004). Reliability of causes of death statistics for respiratory diseases was shown to be about 85% in the Netherlands" 	MISCLASSIFICATION BIAS: "only included primary causes of death, leading to possible outcome misclassification if people died from other causes but had concomitant respiratory conditions."</t>
+  </si>
+  <si>
+    <t>For the outcome data: "In this study population there were 26,309 (0.7%) persons lost to follow-up."</t>
+  </si>
+  <si>
+    <t>Number of pigs near the home</t>
+  </si>
+  <si>
+    <t>&lt; or = 334 pigs within 500 m of home</t>
+  </si>
+  <si>
+    <t>&gt; 334 pigs within 500 m of home</t>
+  </si>
+  <si>
+    <t>&lt; or = 703 pigs within 1000 m of home</t>
+  </si>
+  <si>
+    <t>&gt; 703 pigs within 1000 m of home</t>
+  </si>
+  <si>
+    <t>&lt; or = 1169 pigs within 1500 m of home</t>
+  </si>
+  <si>
+    <t>&gt; 1169 pigs within 1500 m of home</t>
+  </si>
+  <si>
+    <t>Number of chickens near the home residence</t>
+  </si>
+  <si>
+    <t>&lt; or = 19 chickens within 500 m of home</t>
+  </si>
+  <si>
+    <t>&gt; 19 chickens within 500 m of home</t>
+  </si>
+  <si>
+    <t>&lt; or = 39 chickens within 1000 m of home</t>
+  </si>
+  <si>
+    <t>&gt; 39 chickens within 1000 m of home</t>
+  </si>
+  <si>
+    <t>&lt; or = 151 chickens within 1500 m of home</t>
+  </si>
+  <si>
+    <t>&gt; 151 chickens within 1500 m of home</t>
+  </si>
+  <si>
+    <t>Number of mink near the home residence</t>
+  </si>
+  <si>
+    <t>&lt; 1760 mink within 500 m of home</t>
+  </si>
+  <si>
+    <t>&gt; or = 1760 mink within 500 m of home</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>&lt; 2050 mink within 1000 m of home</t>
+  </si>
+  <si>
+    <t>&gt; or = 2050 mink within 1000 m of home</t>
+  </si>
+  <si>
+    <t>&lt;  2050 mink within 1500 m of home</t>
+  </si>
+  <si>
+    <t>&gt; or = 2050 mink within 1500 m of home</t>
+  </si>
+  <si>
+    <t>Mortality due to Chronic Lower Respiratory Disease</t>
+  </si>
+  <si>
+    <t>&lt; or =462 cattle within 1500 m of home</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>&gt; or =1760 mink within 500 m of home</t>
+  </si>
+  <si>
+    <t>Mortality due to pneumonia</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>1.34</t>
   </si>
 </sst>
 </file>
@@ -1035,11 +1185,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65EF1E9-50D6-4563-B108-D3F0864A30F1}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AV40"/>
+  <dimension ref="A1:AV52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="U1" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1190,7 +1341,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1682,7 +1833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1777,7 +1928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1920,7 +2071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2115,50 +2266,50 @@
       <c r="AG11" t="s">
         <v>17</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AH11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="AI11" t="s">
         <v>19</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="AK11" t="s">
         <v>21</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AL11" s="2" t="s">
         <v>94</v>
       </c>
       <c r="AM11" t="s">
         <v>19</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AN11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AO11" t="s">
         <v>17</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AP11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="AQ11" t="s">
         <v>17</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AR11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AS11" t="s">
         <v>21</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AT11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AU11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -2253,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2360,7 +2511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -2467,7 +2618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2562,7 +2713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -2657,7 +2808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -2764,7 +2915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>32507932</v>
       </c>
@@ -2871,7 +3022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -2954,7 +3105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>32507932</v>
       </c>
@@ -3037,7 +3188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -3132,7 +3283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -3227,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>122</v>
       </c>
@@ -3247,7 +3398,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -3267,7 +3418,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -3377,7 +3528,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -3487,7 +3638,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -3597,7 +3748,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -3707,7 +3858,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -3817,7 +3968,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -3927,7 +4078,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>125</v>
       </c>
@@ -4037,7 +4188,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -4147,7 +4298,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -4257,7 +4408,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -4367,7 +4518,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>125</v>
       </c>
@@ -4477,7 +4628,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -4587,7 +4738,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -4697,7 +4848,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -4807,7 +4958,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -4917,7 +5068,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -5027,14 +5178,1724 @@
         <v>138</v>
       </c>
     </row>
+    <row r="41" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH41" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL41" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN41" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP41" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR41" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT41" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU41" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" t="s">
+        <v>229</v>
+      </c>
+      <c r="H42" t="s">
+        <v>215</v>
+      </c>
+      <c r="I42" t="s">
+        <v>230</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="s">
+        <v>149</v>
+      </c>
+      <c r="L42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" t="s">
+        <v>231</v>
+      </c>
+      <c r="N42" t="s">
+        <v>11</v>
+      </c>
+      <c r="O42" t="s">
+        <v>90</v>
+      </c>
+      <c r="P42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>232</v>
+      </c>
+      <c r="R42" t="s">
+        <v>97</v>
+      </c>
+      <c r="S42" t="s">
+        <v>90</v>
+      </c>
+      <c r="T42" t="s">
+        <v>47</v>
+      </c>
+      <c r="U42" t="s">
+        <v>233</v>
+      </c>
+      <c r="V42" t="s">
+        <v>67</v>
+      </c>
+      <c r="W42" t="s">
+        <v>16</v>
+      </c>
+      <c r="X42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" t="s">
+        <v>210</v>
+      </c>
+      <c r="G43" t="s">
+        <v>236</v>
+      </c>
+      <c r="H43" t="s">
+        <v>215</v>
+      </c>
+      <c r="I43" t="s">
+        <v>237</v>
+      </c>
+      <c r="J43" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M43" t="s">
+        <v>238</v>
+      </c>
+      <c r="N43" t="s">
+        <v>97</v>
+      </c>
+      <c r="O43" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>239</v>
+      </c>
+      <c r="R43" t="s">
+        <v>28</v>
+      </c>
+      <c r="S43" t="s">
+        <v>56</v>
+      </c>
+      <c r="T43" t="s">
+        <v>46</v>
+      </c>
+      <c r="U43" t="s">
+        <v>240</v>
+      </c>
+      <c r="V43" t="s">
+        <v>56</v>
+      </c>
+      <c r="W43" t="s">
+        <v>29</v>
+      </c>
+      <c r="X43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" t="s">
+        <v>210</v>
+      </c>
+      <c r="G44" t="s">
+        <v>243</v>
+      </c>
+      <c r="H44" t="s">
+        <v>215</v>
+      </c>
+      <c r="I44" t="s">
+        <v>244</v>
+      </c>
+      <c r="J44" t="s">
+        <v>97</v>
+      </c>
+      <c r="K44" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" t="s">
+        <v>146</v>
+      </c>
+      <c r="M44" t="s">
+        <v>245</v>
+      </c>
+      <c r="N44" t="s">
+        <v>82</v>
+      </c>
+      <c r="O44" t="s">
+        <v>98</v>
+      </c>
+      <c r="P44" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>247</v>
+      </c>
+      <c r="R44" t="s">
+        <v>36</v>
+      </c>
+      <c r="S44" t="s">
+        <v>61</v>
+      </c>
+      <c r="T44" t="s">
+        <v>49</v>
+      </c>
+      <c r="U44" t="s">
+        <v>248</v>
+      </c>
+      <c r="V44" t="s">
+        <v>47</v>
+      </c>
+      <c r="W44" t="s">
+        <v>98</v>
+      </c>
+      <c r="X44" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" t="s">
+        <v>251</v>
+      </c>
+      <c r="F45" t="s">
+        <v>210</v>
+      </c>
+      <c r="G45" t="s">
+        <v>214</v>
+      </c>
+      <c r="H45" t="s">
+        <v>215</v>
+      </c>
+      <c r="I45" t="s">
+        <v>216</v>
+      </c>
+      <c r="J45" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" t="s">
+        <v>68</v>
+      </c>
+      <c r="M45" t="s">
+        <v>217</v>
+      </c>
+      <c r="N45" t="s">
+        <v>36</v>
+      </c>
+      <c r="O45" t="s">
+        <v>11</v>
+      </c>
+      <c r="P45" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>218</v>
+      </c>
+      <c r="R45" t="s">
+        <v>46</v>
+      </c>
+      <c r="S45" t="s">
+        <v>56</v>
+      </c>
+      <c r="T45" t="s">
+        <v>48</v>
+      </c>
+      <c r="U45" t="s">
+        <v>219</v>
+      </c>
+      <c r="V45" t="s">
+        <v>47</v>
+      </c>
+      <c r="W45" t="s">
+        <v>57</v>
+      </c>
+      <c r="X45" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" t="s">
+        <v>210</v>
+      </c>
+      <c r="G46" t="s">
+        <v>229</v>
+      </c>
+      <c r="H46" t="s">
+        <v>215</v>
+      </c>
+      <c r="I46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J46" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" t="s">
+        <v>67</v>
+      </c>
+      <c r="L46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M46" t="s">
+        <v>231</v>
+      </c>
+      <c r="N46" t="s">
+        <v>67</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>232</v>
+      </c>
+      <c r="R46" t="s">
+        <v>57</v>
+      </c>
+      <c r="S46" t="s">
+        <v>61</v>
+      </c>
+      <c r="T46" t="s">
+        <v>56</v>
+      </c>
+      <c r="U46" t="s">
+        <v>233</v>
+      </c>
+      <c r="V46" t="s">
+        <v>149</v>
+      </c>
+      <c r="W46" t="s">
+        <v>52</v>
+      </c>
+      <c r="X46" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" t="s">
+        <v>251</v>
+      </c>
+      <c r="F47" t="s">
+        <v>210</v>
+      </c>
+      <c r="G47" t="s">
+        <v>236</v>
+      </c>
+      <c r="H47" t="s">
+        <v>215</v>
+      </c>
+      <c r="I47" t="s">
+        <v>237</v>
+      </c>
+      <c r="J47" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" t="s">
+        <v>97</v>
+      </c>
+      <c r="L47" t="s">
+        <v>48</v>
+      </c>
+      <c r="M47" t="s">
+        <v>238</v>
+      </c>
+      <c r="N47" t="s">
+        <v>47</v>
+      </c>
+      <c r="O47" t="s">
+        <v>90</v>
+      </c>
+      <c r="P47" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>239</v>
+      </c>
+      <c r="R47" t="s">
+        <v>28</v>
+      </c>
+      <c r="S47" t="s">
+        <v>97</v>
+      </c>
+      <c r="T47" t="s">
+        <v>68</v>
+      </c>
+      <c r="U47" t="s">
+        <v>240</v>
+      </c>
+      <c r="V47" t="s">
+        <v>47</v>
+      </c>
+      <c r="W47" t="s">
+        <v>29</v>
+      </c>
+      <c r="X47" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" t="s">
+        <v>210</v>
+      </c>
+      <c r="G48" t="s">
+        <v>243</v>
+      </c>
+      <c r="H48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I48" t="s">
+        <v>244</v>
+      </c>
+      <c r="J48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" t="s">
+        <v>142</v>
+      </c>
+      <c r="L48" t="s">
+        <v>254</v>
+      </c>
+      <c r="M48" t="s">
+        <v>255</v>
+      </c>
+      <c r="N48" t="s">
+        <v>48</v>
+      </c>
+      <c r="O48" t="s">
+        <v>155</v>
+      </c>
+      <c r="P48" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>247</v>
+      </c>
+      <c r="R48" t="s">
+        <v>36</v>
+      </c>
+      <c r="S48" t="s">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s">
+        <v>38</v>
+      </c>
+      <c r="U48" t="s">
+        <v>248</v>
+      </c>
+      <c r="V48" t="s">
+        <v>30</v>
+      </c>
+      <c r="W48" t="s">
+        <v>16</v>
+      </c>
+      <c r="X48" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" t="s">
+        <v>210</v>
+      </c>
+      <c r="G49" t="s">
+        <v>214</v>
+      </c>
+      <c r="H49" t="s">
+        <v>215</v>
+      </c>
+      <c r="I49" t="s">
+        <v>216</v>
+      </c>
+      <c r="J49" t="s">
+        <v>97</v>
+      </c>
+      <c r="K49" t="s">
+        <v>67</v>
+      </c>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" t="s">
+        <v>217</v>
+      </c>
+      <c r="N49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>218</v>
+      </c>
+      <c r="R49" t="s">
+        <v>36</v>
+      </c>
+      <c r="S49" t="s">
+        <v>97</v>
+      </c>
+      <c r="T49" t="s">
+        <v>30</v>
+      </c>
+      <c r="U49" t="s">
+        <v>219</v>
+      </c>
+      <c r="V49" t="s">
+        <v>36</v>
+      </c>
+      <c r="W49" t="s">
+        <v>97</v>
+      </c>
+      <c r="X49" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E50" t="s">
+        <v>256</v>
+      </c>
+      <c r="F50" t="s">
+        <v>210</v>
+      </c>
+      <c r="G50" t="s">
+        <v>229</v>
+      </c>
+      <c r="H50" t="s">
+        <v>215</v>
+      </c>
+      <c r="I50" t="s">
+        <v>230</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>143</v>
+      </c>
+      <c r="L50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" t="s">
+        <v>231</v>
+      </c>
+      <c r="N50" t="s">
+        <v>97</v>
+      </c>
+      <c r="O50" t="s">
+        <v>16</v>
+      </c>
+      <c r="P50" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>232</v>
+      </c>
+      <c r="R50" t="s">
+        <v>11</v>
+      </c>
+      <c r="S50" t="s">
+        <v>67</v>
+      </c>
+      <c r="T50" t="s">
+        <v>36</v>
+      </c>
+      <c r="U50" t="s">
+        <v>233</v>
+      </c>
+      <c r="V50" t="s">
+        <v>67</v>
+      </c>
+      <c r="W50" t="s">
+        <v>52</v>
+      </c>
+      <c r="X50" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" t="s">
+        <v>256</v>
+      </c>
+      <c r="F51" t="s">
+        <v>210</v>
+      </c>
+      <c r="G51" t="s">
+        <v>236</v>
+      </c>
+      <c r="H51" t="s">
+        <v>215</v>
+      </c>
+      <c r="I51" t="s">
+        <v>237</v>
+      </c>
+      <c r="J51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" t="s">
+        <v>253</v>
+      </c>
+      <c r="M51" t="s">
+        <v>238</v>
+      </c>
+      <c r="N51" t="s">
+        <v>97</v>
+      </c>
+      <c r="O51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>239</v>
+      </c>
+      <c r="R51" t="s">
+        <v>47</v>
+      </c>
+      <c r="S51" t="s">
+        <v>57</v>
+      </c>
+      <c r="T51" t="s">
+        <v>46</v>
+      </c>
+      <c r="U51" t="s">
+        <v>240</v>
+      </c>
+      <c r="V51" t="s">
+        <v>97</v>
+      </c>
+      <c r="W51" t="s">
+        <v>149</v>
+      </c>
+      <c r="X51" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" t="s">
+        <v>210</v>
+      </c>
+      <c r="G52" t="s">
+        <v>243</v>
+      </c>
+      <c r="H52" t="s">
+        <v>215</v>
+      </c>
+      <c r="I52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J52" t="s">
+        <v>33</v>
+      </c>
+      <c r="K52" t="s">
+        <v>257</v>
+      </c>
+      <c r="L52" t="s">
+        <v>79</v>
+      </c>
+      <c r="M52" t="s">
+        <v>245</v>
+      </c>
+      <c r="N52" t="s">
+        <v>46</v>
+      </c>
+      <c r="O52" t="s">
+        <v>258</v>
+      </c>
+      <c r="P52" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>247</v>
+      </c>
+      <c r="R52" t="s">
+        <v>46</v>
+      </c>
+      <c r="S52" t="s">
+        <v>37</v>
+      </c>
+      <c r="T52" t="s">
+        <v>80</v>
+      </c>
+      <c r="U52" t="s">
+        <v>248</v>
+      </c>
+      <c r="V52" t="s">
+        <v>16</v>
+      </c>
+      <c r="W52" t="s">
+        <v>65</v>
+      </c>
+      <c r="X52" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AV40" xr:uid="{F79E06B5-0D94-4BD3-8C0E-07D06686265E}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Infectious conditions"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AV52" xr:uid="{D65EF1E9-50D6-4563-B108-D3F0864A30F1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>